--- a/all-summaries.xlsx
+++ b/all-summaries.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ECEC854-990E-4DC0-810F-D97C9438F6FC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB127B16-1CC4-49F9-B81F-F97954DB1CE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3340" yWindow="2180" windowWidth="21690" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4760" yWindow="1970" windowWidth="26200" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,16 +20,64 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>Chi</t>
+  </si>
+  <si>
+    <t>Thu</t>
+  </si>
+  <si>
+    <t>% thu hồi</t>
+  </si>
+  <si>
+    <t>Tất cả vé&gt;=3</t>
+  </si>
+  <si>
+    <t>Trúng 3</t>
+  </si>
+  <si>
+    <t>Trúng 4</t>
+  </si>
+  <si>
+    <t>Trúng 5</t>
+  </si>
+  <si>
+    <t>3+</t>
+  </si>
+  <si>
+    <t>4+</t>
+  </si>
+  <si>
+    <t>5+</t>
+  </si>
+  <si>
+    <t>Tổng  3</t>
+  </si>
+  <si>
+    <t>Tổng 4</t>
+  </si>
+  <si>
+    <t>Tổng 5</t>
+  </si>
+  <si>
+    <t>Trung bình/Kỳ</t>
+  </si>
+  <si>
+    <t>Từ-Đến</t>
+  </si>
+  <si>
+    <t>Số kỳ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -37,8 +85,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -48,6 +103,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -64,9 +149,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -347,20 +455,337 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.453125" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" customWidth="1"/>
+    <col min="5" max="5" width="12.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
+    <col min="7" max="7" width="12.1796875" customWidth="1"/>
+    <col min="8" max="13" width="6.453125" customWidth="1"/>
+    <col min="14" max="22" width="9.26953125" customWidth="1"/>
+    <col min="23" max="23" width="6.6328125" customWidth="1"/>
+    <col min="24" max="24" width="7.7265625" customWidth="1"/>
+    <col min="25" max="28" width="6.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="H1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+    </row>
+    <row r="2" spans="1:22" s="2" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="8">
+        <v>3</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="8">
+        <v>5</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2" s="3">
+        <v>3</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>4</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T2" s="3">
+        <v>5</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>51</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="H1:M1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/all-summaries.xlsx
+++ b/all-summaries.xlsx
@@ -1,28 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB127B16-1CC4-49F9-B81F-F97954DB1CE9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\535\daily1689\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45CC534-85E5-4863-B0F0-D6939A40457F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4760" yWindow="1970" windowWidth="26200" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5100" yWindow="2310" windowWidth="26200" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
-  <si>
-    <t>#</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+  <si>
+    <t>Trung bình/Kỳ</t>
+  </si>
+  <si>
+    <t>Trúng 3</t>
+  </si>
+  <si>
+    <t>Trúng 4</t>
+  </si>
+  <si>
+    <t>Trúng 5</t>
+  </si>
+  <si>
+    <t>Từ-Đến</t>
+  </si>
+  <si>
+    <t>Số kỳ</t>
   </si>
   <si>
     <t>Chi</t>
@@ -37,15 +52,6 @@
     <t>Tất cả vé&gt;=3</t>
   </si>
   <si>
-    <t>Trúng 3</t>
-  </si>
-  <si>
-    <t>Trúng 4</t>
-  </si>
-  <si>
-    <t>Trúng 5</t>
-  </si>
-  <si>
     <t>3+</t>
   </si>
   <si>
@@ -55,6 +61,17 @@
     <t>5+</t>
   </si>
   <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>Thu 
+&lt;80%</t>
+  </si>
+  <si>
+    <t>Tỉ lệ
+&lt;80%</t>
+  </si>
+  <si>
     <t>Tổng  3</t>
   </si>
   <si>
@@ -64,20 +81,31 @@
     <t>Tổng 5</t>
   </si>
   <si>
-    <t>Trung bình/Kỳ</t>
-  </si>
-  <si>
-    <t>Từ-Đến</t>
-  </si>
-  <si>
-    <t>Số kỳ</t>
+    <t>100-119</t>
+  </si>
+  <si>
+    <t>6/20</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>Kịch bản
+#</t>
+  </si>
+  <si>
+    <t>Lãi/Lỗ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -92,8 +120,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -136,6 +171,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,10 +187,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -160,23 +202,36 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,185 +510,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:AF44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.453125" customWidth="1"/>
-    <col min="4" max="4" width="12.453125" customWidth="1"/>
-    <col min="5" max="5" width="12.90625" customWidth="1"/>
-    <col min="6" max="6" width="13.08984375" customWidth="1"/>
-    <col min="7" max="7" width="12.1796875" customWidth="1"/>
-    <col min="8" max="13" width="6.453125" customWidth="1"/>
-    <col min="14" max="22" width="9.26953125" customWidth="1"/>
-    <col min="23" max="23" width="6.6328125" customWidth="1"/>
-    <col min="24" max="24" width="7.7265625" customWidth="1"/>
-    <col min="25" max="28" width="6.6328125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="7.08984375" style="5" customWidth="1"/>
+    <col min="4" max="5" width="16.1796875" style="13" customWidth="1"/>
+    <col min="6" max="7" width="13.08984375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" style="5" customWidth="1"/>
+    <col min="9" max="15" width="6.453125" style="5" customWidth="1"/>
+    <col min="16" max="16" width="9" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="5" customWidth="1"/>
+    <col min="18" max="26" width="9.26953125" style="5" customWidth="1"/>
+    <col min="27" max="27" width="6.6328125" style="5" customWidth="1"/>
+    <col min="28" max="28" width="7.7265625" style="5" customWidth="1"/>
+    <col min="29" max="32" width="6.6328125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="H1" s="7" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="I1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="R1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="4">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2" s="4">
+        <v>4</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="4">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="4" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="3">
+        <v>3</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" s="3">
+        <v>4</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="3">
         <v>5</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-    </row>
-    <row r="2" spans="1:22" s="2" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="8">
-        <v>3</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="8">
-        <v>4</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="8">
-        <v>5</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="3">
-        <v>3</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>4</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="3">
-        <v>5</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="Z2" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3" s="13">
+        <v>10471800000</v>
+      </c>
+      <c r="E3" s="13">
+        <v>13538727860</v>
+      </c>
+      <c r="F3">
+        <f>(E3/D3)*100</f>
+        <v>129.287494604557</v>
+      </c>
+      <c r="H3">
+        <v>3004</v>
+      </c>
+      <c r="I3">
+        <v>128.35</v>
+      </c>
+      <c r="J3">
+        <v>12.05</v>
+      </c>
+      <c r="K3">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="L3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>0.15</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>127.6</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3">
+        <v>30</v>
+      </c>
+      <c r="R3">
+        <v>2567</v>
+      </c>
+      <c r="S3">
+        <v>241</v>
+      </c>
+      <c r="T3">
+        <v>2808</v>
+      </c>
+      <c r="U3">
+        <v>171</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3" t="s">
+        <v>21</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>23</v>
       </c>
@@ -780,12 +923,12 @@
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:V1"/>
-    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="U1:W1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/all-summaries.xlsx
+++ b/all-summaries.xlsx
@@ -663,82 +663,86 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>100-119</t>
+          <t>100-350</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20</v>
+        <v>251</v>
       </c>
       <c r="D3" s="15" t="n">
-        <v>10471800000</v>
+        <v>130373910000</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>13538727860</v>
+        <v>182036153640</v>
       </c>
       <c r="F3">
+        <f>(E3-D3)</f>
+        <v/>
+      </c>
+      <c r="G3">
         <f>(E3/D3)*100</f>
         <v/>
       </c>
       <c r="H3" t="n">
-        <v>3004</v>
+        <v>37417</v>
       </c>
       <c r="I3" t="n">
-        <v>128.35</v>
+        <v>127.7848605577689</v>
       </c>
       <c r="J3" t="n">
-        <v>12.05</v>
+        <v>11.64541832669323</v>
       </c>
       <c r="K3" t="n">
-        <v>8.550000000000001</v>
+        <v>8.637450199203187</v>
       </c>
       <c r="L3" t="n">
-        <v>1.1</v>
+        <v>0.8047808764940239</v>
       </c>
       <c r="M3" t="n">
-        <v>0.15</v>
+        <v>0.1752988047808765</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.02390438247011952</v>
       </c>
       <c r="O3" t="n">
-        <v>127.6</v>
+        <v>127.1513944223108</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>6/20</t>
+          <t>78/251</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>30</v>
+        <v>31.07569721115538</v>
       </c>
       <c r="R3" t="n">
-        <v>2567</v>
+        <v>32074</v>
       </c>
       <c r="S3" t="n">
-        <v>241</v>
+        <v>2923</v>
       </c>
       <c r="T3" t="n">
-        <v>2808</v>
+        <v>34997</v>
       </c>
       <c r="U3" t="n">
-        <v>171</v>
+        <v>2168</v>
       </c>
       <c r="V3" t="n">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="X3" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z3" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">

--- a/all-summaries.xlsx
+++ b/all-summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\535\daily1689\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11F6BA88-D4A6-448F-BBD7-BDD565F7B177}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1BB98F-92B4-41F2-8EF2-62FF40D72EE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2370" windowWidth="29130" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2270" yWindow="2550" windowWidth="29130" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
   <si>
     <t>Trung bình/Kỳ</t>
   </si>
@@ -94,6 +94,12 @@
     <t>100-350</t>
   </si>
   <si>
+    <t>130373910000</t>
+  </si>
+  <si>
+    <t>182036153640</t>
+  </si>
+  <si>
     <t>78/251</t>
   </si>
   <si>
@@ -127,13 +133,16 @@
     <t>82/251</t>
   </si>
   <si>
-    <t>52/251</t>
-  </si>
-  <si>
-    <t>130373910000</t>
-  </si>
-  <si>
-    <t>182036153640</t>
+    <t>251</t>
+  </si>
+  <si>
+    <t>131421090000</t>
+  </si>
+  <si>
+    <t>171413667160.0</t>
+  </si>
+  <si>
+    <t>86/251</t>
   </si>
 </sst>
 </file>
@@ -254,7 +263,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,7 +280,6 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -279,7 +287,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,14 +294,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,8 +312,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -587,61 +593,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF44"/>
+  <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9" style="6" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="9.54296875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="6" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="6" customWidth="1"/>
-    <col min="10" max="15" width="6.453125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="9" style="6" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="6" customWidth="1"/>
-    <col min="18" max="22" width="9.26953125" style="6" customWidth="1"/>
-    <col min="23" max="23" width="9.26953125" style="13" customWidth="1"/>
-    <col min="24" max="26" width="9.26953125" style="6" customWidth="1"/>
-    <col min="27" max="27" width="6.6328125" style="6" customWidth="1"/>
-    <col min="28" max="28" width="7.7265625" style="6" customWidth="1"/>
-    <col min="29" max="32" width="6.6328125" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="17" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.90625" style="17" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" style="17" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" style="17" customWidth="1"/>
+    <col min="9" max="9" width="8.36328125" style="17" customWidth="1"/>
+    <col min="10" max="15" width="6.453125" style="17" customWidth="1"/>
+    <col min="16" max="16" width="9" style="17" customWidth="1"/>
+    <col min="17" max="17" width="9.08984375" style="17" customWidth="1"/>
+    <col min="18" max="22" width="9.26953125" style="17" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" style="11" customWidth="1"/>
+    <col min="24" max="26" width="9.26953125" style="17" customWidth="1"/>
+    <col min="27" max="27" width="6.6328125" style="17" customWidth="1"/>
+    <col min="28" max="28" width="7.7265625" style="17" customWidth="1"/>
+    <col min="29" max="32" width="6.6328125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="R1" s="24" t="s">
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="R1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="20" t="s">
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="22" t="s">
+      <c r="V1" s="19"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
     </row>
     <row r="2" spans="1:26" s="2" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -650,10 +656,10 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -707,7 +713,7 @@
       <c r="V2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="10" t="s">
         <v>19</v>
       </c>
       <c r="X2" s="3">
@@ -722,7 +728,7 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -730,81 +736,81 @@
       <c r="C3">
         <v>251</v>
       </c>
-      <c r="D3" s="19">
-        <v>131421090000</v>
-      </c>
-      <c r="E3" s="19">
-        <v>175963427720</v>
+      <c r="D3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>23</v>
       </c>
       <c r="F3">
         <f>(E3-D3)</f>
-        <v>44542337720</v>
-      </c>
-      <c r="G3" s="14">
+        <v>51662243640</v>
+      </c>
+      <c r="G3" s="12">
         <f>(E3/D3)*100</f>
-        <v>133.8928384477712</v>
-      </c>
-      <c r="H3" s="10">
-        <v>37693</v>
-      </c>
-      <c r="I3">
-        <v>128.53784860557769</v>
+        <v>139.62621328147634</v>
+      </c>
+      <c r="H3">
+        <v>37417</v>
+      </c>
+      <c r="I3" s="17">
+        <v>127.78486055776889</v>
       </c>
       <c r="J3">
-        <v>11.89243027888446</v>
-      </c>
-      <c r="K3">
-        <v>8.7490039840637444</v>
+        <v>11.64541832669323</v>
+      </c>
+      <c r="K3" s="17">
+        <v>8.6374501992031867</v>
       </c>
       <c r="L3">
-        <v>0.78884462151394419</v>
-      </c>
-      <c r="M3">
-        <v>0.19920318725099601</v>
+        <v>0.80478087649402386</v>
+      </c>
+      <c r="M3" s="17">
+        <v>0.1752988047808765</v>
       </c>
       <c r="N3">
-        <v>3.9840637450199202E-3</v>
+        <v>2.3904382470119521E-2</v>
       </c>
       <c r="O3">
-        <v>128.0637450199203</v>
+        <v>127.1513944223108</v>
       </c>
       <c r="P3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="17">
-        <v>33.466135458167329</v>
+        <v>31.075697211155379</v>
       </c>
       <c r="R3">
-        <v>32263</v>
+        <v>32074</v>
       </c>
       <c r="S3">
-        <v>2985</v>
-      </c>
-      <c r="T3" s="15">
-        <v>35248</v>
+        <v>2923</v>
+      </c>
+      <c r="T3" s="17">
+        <v>34997</v>
       </c>
       <c r="U3">
-        <v>2196</v>
+        <v>2168</v>
       </c>
       <c r="V3">
-        <v>198</v>
-      </c>
-      <c r="W3" s="6">
-        <v>2394</v>
+        <v>202</v>
+      </c>
+      <c r="W3" s="17">
+        <v>2370</v>
       </c>
       <c r="X3">
+        <v>44</v>
+      </c>
+      <c r="Y3">
+        <v>6</v>
+      </c>
+      <c r="Z3" s="12">
         <v>50</v>
-      </c>
-      <c r="Y3">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -812,81 +818,81 @@
       <c r="C4">
         <v>251</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E4" s="26" t="s">
-        <v>35</v>
+      <c r="D4">
+        <v>131421090000</v>
+      </c>
+      <c r="E4">
+        <v>148641587120</v>
       </c>
       <c r="F4">
         <f>(E4-D4)</f>
-        <v>51662243640</v>
-      </c>
-      <c r="G4" s="14">
+        <v>17220497120</v>
+      </c>
+      <c r="G4">
         <f>(E4/D4)*100</f>
-        <v>139.62621328147634</v>
-      </c>
-      <c r="H4" s="10">
-        <v>37417</v>
-      </c>
-      <c r="I4">
-        <v>127.78486055776889</v>
+        <v>113.10329804752037</v>
+      </c>
+      <c r="H4">
+        <v>37661</v>
+      </c>
+      <c r="I4" s="17">
+        <v>128.48605577689241</v>
       </c>
       <c r="J4">
-        <v>11.64541832669323</v>
-      </c>
-      <c r="K4">
-        <v>8.6374501992031867</v>
+        <v>11.597609561752989</v>
+      </c>
+      <c r="K4" s="14">
+        <v>9.1155378486055803</v>
       </c>
       <c r="L4">
-        <v>0.80478087649402386</v>
-      </c>
-      <c r="M4">
-        <v>0.1752988047808765</v>
+        <v>0.71713147410358569</v>
+      </c>
+      <c r="M4" s="17">
+        <v>0.12749003984063739</v>
       </c>
       <c r="N4">
-        <v>2.3904382470119521E-2</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>127.1513944223108</v>
+        <v>128.43426294820719</v>
       </c>
       <c r="P4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="Q4">
-        <v>31.075697211155379</v>
+        <v>37.450199203187253</v>
       </c>
       <c r="R4">
-        <v>32074</v>
+        <v>32250</v>
       </c>
       <c r="S4">
-        <v>2923</v>
-      </c>
-      <c r="T4" s="10">
-        <v>34997</v>
+        <v>2911</v>
+      </c>
+      <c r="T4">
+        <v>35161</v>
       </c>
       <c r="U4">
-        <v>2168</v>
+        <v>2288</v>
       </c>
       <c r="V4">
-        <v>202</v>
-      </c>
-      <c r="W4" s="19">
-        <v>2370</v>
+        <v>180</v>
+      </c>
+      <c r="W4" s="9">
+        <v>2468</v>
       </c>
       <c r="X4">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="Y4">
-        <v>6</v>
-      </c>
-      <c r="Z4" s="14">
-        <v>50</v>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="17">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>12</v>
+      <c r="A5" s="17">
+        <v>37</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
@@ -904,26 +910,26 @@
         <f>(E5-D5)</f>
         <v>39795784920</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5">
         <f>(E5/D5)*100</f>
         <v>130.28112528970809</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="14">
         <v>37718</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="17">
         <v>128.71713147410361</v>
       </c>
       <c r="J5">
         <v>11.812749003984059</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="17">
         <v>8.7569721115537842</v>
       </c>
       <c r="L5">
         <v>0.79681274900398402</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="12">
         <v>0.18326693227091631</v>
       </c>
       <c r="N5">
@@ -933,7 +939,7 @@
         <v>128.13545816733071</v>
       </c>
       <c r="P5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="Q5">
         <v>34.661354581673308</v>
@@ -944,7 +950,7 @@
       <c r="S5">
         <v>2965</v>
       </c>
-      <c r="T5" s="16">
+      <c r="T5" s="14">
         <v>35273</v>
       </c>
       <c r="U5">
@@ -953,22 +959,22 @@
       <c r="V5">
         <v>200</v>
       </c>
-      <c r="W5" s="6">
+      <c r="W5" s="17">
         <v>2398</v>
       </c>
-      <c r="X5" s="6">
+      <c r="X5">
         <v>46</v>
       </c>
       <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Z5" s="17">
+      <c r="Z5">
         <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>15</v>
+      <c r="A6" s="17">
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
@@ -976,81 +982,81 @@
       <c r="C6">
         <v>251</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="17">
         <v>131421090000</v>
       </c>
-      <c r="E6" s="6">
-        <v>186740852920</v>
+      <c r="E6" s="17">
+        <v>168885007860</v>
       </c>
       <c r="F6">
         <f>(E6-D6)</f>
-        <v>55319762920</v>
-      </c>
-      <c r="G6" s="18">
+        <v>37463917860</v>
+      </c>
+      <c r="G6" s="17">
         <f>(E6/D6)*100</f>
-        <v>142.09352008874677</v>
-      </c>
-      <c r="H6" s="19">
-        <v>37678</v>
+        <v>128.50677761080814</v>
+      </c>
+      <c r="H6" s="12">
+        <v>37715</v>
       </c>
       <c r="I6">
-        <v>128.69721115537851</v>
+        <v>128.601593625498</v>
       </c>
       <c r="J6">
-        <v>11.60956175298805</v>
+        <v>11.8605577689243</v>
       </c>
       <c r="K6">
-        <v>8.6892430278884465</v>
+        <v>8.8007968127490042</v>
       </c>
       <c r="L6">
-        <v>0.92828685258964139</v>
+        <v>0.8366533864541833</v>
       </c>
       <c r="M6">
-        <v>0.15537848605577689</v>
+        <v>0.14342629482071709</v>
       </c>
       <c r="N6">
-        <v>3.1872509960159362E-2</v>
+        <v>1.5936254980079681E-2</v>
       </c>
       <c r="O6">
-        <v>128.17928286852589</v>
+        <v>128.03585657370519</v>
       </c>
       <c r="P6" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q6" s="11">
-        <v>25.099601593625501</v>
+        <v>27</v>
+      </c>
+      <c r="Q6">
+        <v>35.059760956175303</v>
       </c>
       <c r="R6">
-        <v>32303</v>
+        <v>32279</v>
       </c>
       <c r="S6">
-        <v>2914</v>
-      </c>
-      <c r="T6" s="19">
-        <v>35217</v>
+        <v>2977</v>
+      </c>
+      <c r="T6" s="12">
+        <v>35256</v>
       </c>
       <c r="U6">
-        <v>2181</v>
+        <v>2209</v>
       </c>
       <c r="V6">
-        <v>233</v>
-      </c>
-      <c r="W6" s="6">
-        <v>2414</v>
+        <v>210</v>
+      </c>
+      <c r="W6" s="17">
+        <v>2419</v>
       </c>
       <c r="X6">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Y6">
-        <v>8</v>
-      </c>
-      <c r="Z6" s="10">
-        <v>47</v>
+        <v>4</v>
+      </c>
+      <c r="Z6" s="17">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>27</v>
+      <c r="A7" s="17">
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
@@ -1062,77 +1068,77 @@
         <v>131421090000</v>
       </c>
       <c r="E7">
-        <v>170433084440</v>
+        <v>166937578280</v>
       </c>
       <c r="F7">
         <f>(E7-D7)</f>
-        <v>39011994440</v>
+        <v>35516488280</v>
       </c>
       <c r="G7">
         <f>(E7/D7)*100</f>
-        <v>129.68472901875947</v>
-      </c>
-      <c r="H7">
-        <v>37685</v>
+        <v>127.02495336174735</v>
+      </c>
+      <c r="H7" s="17">
+        <v>37675</v>
       </c>
       <c r="I7">
-        <v>128.85258964143429</v>
+        <v>128.23904382470121</v>
       </c>
       <c r="J7">
-        <v>11.466135458167329</v>
+        <v>12.011952191235061</v>
       </c>
       <c r="K7">
-        <v>8.8525896414342622</v>
+        <v>8.8326693227091635</v>
       </c>
       <c r="L7">
-        <v>0.78087649402390436</v>
+        <v>0.85657370517928288</v>
       </c>
       <c r="M7">
-        <v>0.18326693227091631</v>
+        <v>0.151394422310757</v>
       </c>
       <c r="N7">
-        <v>3.9840637450199202E-3</v>
+        <v>7.9681274900398405E-3</v>
       </c>
       <c r="O7">
-        <v>128.4980079681275</v>
+        <v>127.87250996015941</v>
       </c>
       <c r="P7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q7">
-        <v>33.466135458167329</v>
+        <v>34.661354581673308</v>
       </c>
       <c r="R7">
-        <v>32342</v>
+        <v>32188</v>
       </c>
       <c r="S7">
-        <v>2878</v>
-      </c>
-      <c r="T7" s="6">
-        <v>35220</v>
+        <v>3015</v>
+      </c>
+      <c r="T7">
+        <v>35203</v>
       </c>
       <c r="U7">
-        <v>2222</v>
+        <v>2217</v>
       </c>
       <c r="V7">
-        <v>196</v>
-      </c>
-      <c r="W7" s="6">
-        <v>2418</v>
+        <v>215</v>
+      </c>
+      <c r="W7">
+        <v>2432</v>
       </c>
       <c r="X7">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="Y7">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="25">
-        <v>47</v>
+        <v>2</v>
+      </c>
+      <c r="Z7">
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>28</v>
+      <c r="A8" s="17">
+        <v>40</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
@@ -1144,77 +1150,77 @@
         <v>131421090000</v>
       </c>
       <c r="E8">
-        <v>167688031760</v>
+        <v>186740852920</v>
       </c>
       <c r="F8">
         <f>(E8-D8)</f>
-        <v>36266941760</v>
-      </c>
-      <c r="G8" s="19">
+        <v>55319762920</v>
+      </c>
+      <c r="G8" s="14">
         <f>(E8/D8)*100</f>
-        <v>127.59598308003686</v>
-      </c>
-      <c r="H8" s="14">
-        <v>37694</v>
-      </c>
-      <c r="I8">
-        <v>128.796812749004</v>
+        <v>142.09352008874677</v>
+      </c>
+      <c r="H8" s="17">
+        <v>37678</v>
+      </c>
+      <c r="I8" s="17">
+        <v>128.69721115537851</v>
       </c>
       <c r="J8">
-        <v>11.55776892430279</v>
+        <v>11.60956175298805</v>
       </c>
       <c r="K8">
-        <v>8.9123505976095618</v>
+        <v>8.6892430278884465</v>
       </c>
       <c r="L8">
-        <v>0.72908366533864544</v>
+        <v>0.92828685258964139</v>
       </c>
       <c r="M8">
-        <v>0.17131474103585659</v>
+        <v>0.15537848605577689</v>
       </c>
       <c r="N8">
-        <v>7.9681274900398405E-3</v>
+        <v>3.1872509960159362E-2</v>
       </c>
       <c r="O8">
-        <v>128.45418326693229</v>
+        <v>128.17928286852589</v>
       </c>
       <c r="P8" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="19">
-        <v>34.661354581673308</v>
+        <v>28</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>25.099601593625501</v>
       </c>
       <c r="R8">
-        <v>32328</v>
+        <v>32303</v>
       </c>
       <c r="S8">
-        <v>2901</v>
+        <v>2914</v>
       </c>
       <c r="T8" s="17">
-        <v>35229</v>
+        <v>35217</v>
       </c>
       <c r="U8">
-        <v>2237</v>
+        <v>2181</v>
       </c>
       <c r="V8">
-        <v>183</v>
-      </c>
-      <c r="W8" s="6">
-        <v>2420</v>
+        <v>233</v>
+      </c>
+      <c r="W8">
+        <v>2414</v>
       </c>
       <c r="X8">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="Y8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Z8">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>16</v>
+      <c r="A9" s="17">
+        <v>41</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
@@ -1232,14 +1238,14 @@
         <f>(E9-D9)</f>
         <v>43222447020</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="17">
         <f>(E9/D9)*100</f>
         <v>132.88851661479904</v>
       </c>
       <c r="H9">
         <v>37689</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="17">
         <v>128.4581673306773</v>
       </c>
       <c r="J9">
@@ -1261,9 +1267,9 @@
         <v>128.00398406374501</v>
       </c>
       <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="6">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="17">
         <v>33.466135458167329</v>
       </c>
       <c r="R9">
@@ -1281,7 +1287,7 @@
       <c r="V9">
         <v>205</v>
       </c>
-      <c r="W9" s="6">
+      <c r="W9">
         <v>2413</v>
       </c>
       <c r="X9">
@@ -1295,8 +1301,8 @@
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>17</v>
+      <c r="A10" s="17">
+        <v>42</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
@@ -1318,7 +1324,7 @@
         <f>(E10/D10)*100</f>
         <v>130.13855146080436</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="17">
         <v>37682</v>
       </c>
       <c r="I10">
@@ -1343,9 +1349,9 @@
         <v>128.23904382470121</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q10" s="6">
+        <v>30</v>
+      </c>
+      <c r="Q10">
         <v>29.482071713147409</v>
       </c>
       <c r="R10">
@@ -1363,7 +1369,7 @@
       <c r="V10">
         <v>209</v>
       </c>
-      <c r="W10" s="6">
+      <c r="W10">
         <v>2424</v>
       </c>
       <c r="X10">
@@ -1377,8 +1383,8 @@
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>18</v>
+      <c r="A11" s="17">
+        <v>43</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -1396,11 +1402,11 @@
         <f>(E11-D11)</f>
         <v>39382722640</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="17">
         <f>(E11/D11)*100</f>
         <v>129.96682088087991</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="17">
         <v>37669</v>
       </c>
       <c r="I11">
@@ -1425,9 +1431,9 @@
         <v>128.49402390438249</v>
       </c>
       <c r="P11" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q11">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="17">
         <v>32.270916334661351</v>
       </c>
       <c r="R11">
@@ -1436,7 +1442,7 @@
       <c r="S11">
         <v>2855</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="17">
         <v>35188</v>
       </c>
       <c r="U11">
@@ -1445,7 +1451,7 @@
       <c r="V11">
         <v>217</v>
       </c>
-      <c r="W11" s="6">
+      <c r="W11">
         <v>2440</v>
       </c>
       <c r="X11">
@@ -1459,8 +1465,8 @@
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>25</v>
+      <c r="A12" s="17">
+        <v>44</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
@@ -1472,77 +1478,77 @@
         <v>131421090000</v>
       </c>
       <c r="E12">
-        <v>166054694380</v>
+        <v>153958977980</v>
       </c>
       <c r="F12">
         <f>(E12-D12)</f>
-        <v>34633604380</v>
-      </c>
-      <c r="G12">
+        <v>22537887980</v>
+      </c>
+      <c r="G12" s="17">
         <f>(E12/D12)*100</f>
-        <v>126.3531556312613</v>
-      </c>
-      <c r="H12" s="17">
-        <v>37687</v>
-      </c>
-      <c r="I12">
-        <v>128.83266932270919</v>
+        <v>117.14936923746409</v>
+      </c>
+      <c r="H12">
+        <v>37679</v>
+      </c>
+      <c r="I12" s="17">
+        <v>128.53386454183271</v>
       </c>
       <c r="J12">
-        <v>11.474103585657369</v>
-      </c>
-      <c r="K12">
-        <v>8.8167330677290838</v>
+        <v>11.64541832669323</v>
+      </c>
+      <c r="K12" s="12">
+        <v>9.0597609561752996</v>
       </c>
       <c r="L12">
-        <v>0.8605577689243028</v>
+        <v>0.7450199203187251</v>
       </c>
       <c r="M12">
-        <v>0.15936254980079681</v>
+        <v>0.1235059760956175</v>
       </c>
       <c r="N12">
-        <v>3.9840637450199202E-3</v>
+        <v>7.9681274900398405E-3</v>
       </c>
       <c r="O12">
-        <v>128.41035856573711</v>
+        <v>128.35059760956179</v>
       </c>
       <c r="P12" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="Q12">
-        <v>31.075697211155379</v>
+        <v>39.04382470119522</v>
       </c>
       <c r="R12">
-        <v>32337</v>
+        <v>32262</v>
       </c>
       <c r="S12">
-        <v>2880</v>
+        <v>2923</v>
       </c>
       <c r="T12" s="17">
-        <v>35217</v>
+        <v>35185</v>
       </c>
       <c r="U12">
-        <v>2213</v>
+        <v>2274</v>
       </c>
       <c r="V12">
-        <v>216</v>
-      </c>
-      <c r="W12" s="19">
-        <v>2429</v>
+        <v>187</v>
+      </c>
+      <c r="W12" s="12">
+        <v>2461</v>
       </c>
       <c r="X12">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>41</v>
+        <v>2</v>
+      </c>
+      <c r="Z12" s="17">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>13</v>
+      <c r="A13" s="17">
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
@@ -1554,77 +1560,77 @@
         <v>131421090000</v>
       </c>
       <c r="E13">
-        <v>168885007860</v>
+        <v>175963427720</v>
       </c>
       <c r="F13">
         <f>(E13-D13)</f>
-        <v>37463917860</v>
-      </c>
-      <c r="G13" s="19">
+        <v>44542337720</v>
+      </c>
+      <c r="G13" s="12">
         <f>(E13/D13)*100</f>
-        <v>128.50677761080814</v>
-      </c>
-      <c r="H13" s="14">
-        <v>37715</v>
+        <v>133.8928384477712</v>
+      </c>
+      <c r="H13">
+        <v>37693</v>
       </c>
       <c r="I13">
-        <v>128.601593625498</v>
+        <v>128.53784860557769</v>
       </c>
       <c r="J13">
-        <v>11.8605577689243</v>
+        <v>11.89243027888446</v>
       </c>
       <c r="K13">
-        <v>8.8007968127490042</v>
+        <v>8.7490039840637444</v>
       </c>
       <c r="L13">
-        <v>0.8366533864541833</v>
-      </c>
-      <c r="M13">
-        <v>0.14342629482071709</v>
+        <v>0.78884462151394419</v>
+      </c>
+      <c r="M13" s="14">
+        <v>0.19920318725099601</v>
       </c>
       <c r="N13">
-        <v>1.5936254980079681E-2</v>
+        <v>3.9840637450199202E-3</v>
       </c>
       <c r="O13">
-        <v>128.03585657370519</v>
+        <v>128.0637450199203</v>
       </c>
       <c r="P13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="10">
-        <v>35.059760956175303</v>
+        <v>29</v>
+      </c>
+      <c r="Q13">
+        <v>33.466135458167329</v>
       </c>
       <c r="R13">
-        <v>32279</v>
+        <v>32263</v>
       </c>
       <c r="S13">
-        <v>2977</v>
-      </c>
-      <c r="T13" s="14">
-        <v>35256</v>
+        <v>2985</v>
+      </c>
+      <c r="T13" s="13">
+        <v>35248</v>
       </c>
       <c r="U13">
-        <v>2209</v>
+        <v>2196</v>
       </c>
       <c r="V13">
-        <v>210</v>
-      </c>
-      <c r="W13" s="6">
-        <v>2419</v>
+        <v>198</v>
+      </c>
+      <c r="W13" s="17">
+        <v>2394</v>
       </c>
       <c r="X13">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="Y13">
-        <v>4</v>
-      </c>
-      <c r="Z13" s="19">
-        <v>40</v>
+        <v>1</v>
+      </c>
+      <c r="Z13" s="14">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>14</v>
+      <c r="A14" s="17">
+        <v>46</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
@@ -1636,77 +1642,77 @@
         <v>131421090000</v>
       </c>
       <c r="E14">
-        <v>166937578280</v>
+        <v>157289866920</v>
       </c>
       <c r="F14">
         <f>(E14-D14)</f>
-        <v>35516488280</v>
+        <v>25868776920</v>
       </c>
       <c r="G14">
         <f>(E14/D14)*100</f>
-        <v>127.02495336174735</v>
+        <v>119.68388553161444</v>
       </c>
       <c r="H14">
-        <v>37675</v>
+        <v>37691</v>
       </c>
       <c r="I14">
-        <v>128.23904382470121</v>
+        <v>128.3545816733068</v>
       </c>
       <c r="J14">
-        <v>12.011952191235061</v>
-      </c>
-      <c r="K14">
-        <v>8.8326693227091635</v>
+        <v>11.908366533864539</v>
+      </c>
+      <c r="K14" s="12">
+        <v>9.0637450199203187</v>
       </c>
       <c r="L14">
-        <v>0.85657370517928288</v>
+        <v>0.70517928286852594</v>
       </c>
       <c r="M14">
-        <v>0.151394422310757</v>
+        <v>0.11155378486055779</v>
       </c>
       <c r="N14">
-        <v>7.9681274900398405E-3</v>
+        <v>1.9920318725099601E-2</v>
       </c>
       <c r="O14">
-        <v>127.87250996015941</v>
+        <v>128.11553784860561</v>
       </c>
       <c r="P14" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q14">
-        <v>34.661354581673308</v>
+        <v>42.629482071713149</v>
       </c>
       <c r="R14">
-        <v>32188</v>
+        <v>32217</v>
       </c>
       <c r="S14">
-        <v>3015</v>
-      </c>
-      <c r="T14" s="6">
-        <v>35203</v>
+        <v>2989</v>
+      </c>
+      <c r="T14">
+        <v>35206</v>
       </c>
       <c r="U14">
-        <v>2217</v>
+        <v>2275</v>
       </c>
       <c r="V14">
-        <v>215</v>
-      </c>
-      <c r="W14" s="6">
-        <v>2432</v>
+        <v>177</v>
+      </c>
+      <c r="W14" s="17">
+        <v>2452</v>
       </c>
       <c r="X14">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="Y14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z14">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>22</v>
+      <c r="A15" s="17">
+        <v>47</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
@@ -1731,7 +1737,7 @@
       <c r="H15">
         <v>37638</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="17">
         <v>128.15139442231069</v>
       </c>
       <c r="J15">
@@ -1753,9 +1759,9 @@
         <v>128.11155378486049</v>
       </c>
       <c r="P15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q15">
+        <v>26</v>
+      </c>
+      <c r="Q15" s="17">
         <v>34.661354581673308</v>
       </c>
       <c r="R15">
@@ -1764,7 +1770,7 @@
       <c r="S15">
         <v>2974</v>
       </c>
-      <c r="T15" s="6">
+      <c r="T15">
         <v>35140</v>
       </c>
       <c r="U15">
@@ -1773,7 +1779,7 @@
       <c r="V15">
         <v>197</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="13">
         <v>2459</v>
       </c>
       <c r="X15">
@@ -1787,8 +1793,8 @@
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>29</v>
+      <c r="A16" s="17">
+        <v>48</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
@@ -1797,80 +1803,80 @@
         <v>251</v>
       </c>
       <c r="D16">
-        <v>130897500000</v>
+        <v>131421090000</v>
       </c>
       <c r="E16">
-        <v>166479362960</v>
+        <v>161107982100</v>
       </c>
       <c r="F16">
         <f>(E16-D16)</f>
-        <v>35581862960</v>
+        <v>29686892100</v>
       </c>
       <c r="G16">
         <f>(E16/D16)*100</f>
-        <v>127.18299658893409</v>
+        <v>122.58913854694097</v>
       </c>
       <c r="H16">
-        <v>37520</v>
-      </c>
-      <c r="I16">
-        <v>128.19920318725099</v>
+        <v>37673</v>
+      </c>
+      <c r="I16" s="17">
+        <v>128.42629482071709</v>
       </c>
       <c r="J16">
-        <v>11.39043824701195</v>
+        <v>11.7609561752988</v>
       </c>
       <c r="K16">
-        <v>8.9203187250996017</v>
+        <v>8.9362549800796813</v>
       </c>
       <c r="L16">
-        <v>0.81673306772908372</v>
+        <v>0.82868525896414347</v>
       </c>
       <c r="M16">
-        <v>0.1394422310756972</v>
+        <v>0.12749003984063739</v>
       </c>
       <c r="N16">
-        <v>1.5936254980079681E-2</v>
+        <v>1.1952191235059761E-2</v>
       </c>
       <c r="O16">
-        <v>127.9641434262948</v>
+        <v>128.14741035856571</v>
       </c>
       <c r="P16" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="Q16">
-        <v>33.466135458167329</v>
+        <v>32.669322709163353</v>
       </c>
       <c r="R16">
-        <v>32178</v>
+        <v>32235</v>
       </c>
       <c r="S16">
-        <v>2859</v>
+        <v>2952</v>
       </c>
       <c r="T16">
-        <v>35037</v>
+        <v>35187</v>
       </c>
       <c r="U16">
-        <v>2239</v>
+        <v>2243</v>
       </c>
       <c r="V16">
-        <v>205</v>
-      </c>
-      <c r="W16" s="6">
-        <v>2444</v>
+        <v>208</v>
+      </c>
+      <c r="W16">
+        <v>2451</v>
       </c>
       <c r="X16">
+        <v>32</v>
+      </c>
+      <c r="Y16">
+        <v>3</v>
+      </c>
+      <c r="Z16">
         <v>35</v>
-      </c>
-      <c r="Y16">
-        <v>4</v>
-      </c>
-      <c r="Z16">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>24</v>
+      <c r="A17" s="17">
+        <v>49</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
@@ -1892,7 +1898,7 @@
         <f>(E17/D17)*100</f>
         <v>120.08072086451268</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="17">
         <v>37664</v>
       </c>
       <c r="I17">
@@ -1917,9 +1923,9 @@
         <v>128.13944223107569</v>
       </c>
       <c r="P17" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q17" s="6">
+        <v>24</v>
+      </c>
+      <c r="Q17">
         <v>31.075697211155379</v>
       </c>
       <c r="R17">
@@ -1928,7 +1934,7 @@
       <c r="S17">
         <v>2957</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="17">
         <v>35176</v>
       </c>
       <c r="U17">
@@ -1937,7 +1943,7 @@
       <c r="V17">
         <v>208</v>
       </c>
-      <c r="W17" s="17">
+      <c r="W17">
         <v>2452</v>
       </c>
       <c r="X17">
@@ -1951,8 +1957,8 @@
       </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>23</v>
+      <c r="A18" s="17">
+        <v>50</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
@@ -1964,159 +1970,159 @@
         <v>131421090000</v>
       </c>
       <c r="E18">
-        <v>161107982100</v>
+        <v>166054694380</v>
       </c>
       <c r="F18">
         <f>(E18-D18)</f>
-        <v>29686892100</v>
+        <v>34633604380</v>
       </c>
       <c r="G18">
         <f>(E18/D18)*100</f>
-        <v>122.58913854694097</v>
+        <v>126.3531556312613</v>
       </c>
       <c r="H18">
-        <v>37673</v>
-      </c>
-      <c r="I18">
-        <v>128.42629482071709</v>
+        <v>37687</v>
+      </c>
+      <c r="I18" s="13">
+        <v>128.83266932270919</v>
       </c>
       <c r="J18">
-        <v>11.7609561752988</v>
+        <v>11.474103585657369</v>
       </c>
       <c r="K18">
-        <v>8.9362549800796813</v>
+        <v>8.8167330677290838</v>
       </c>
       <c r="L18">
-        <v>0.82868525896414347</v>
+        <v>0.8605577689243028</v>
       </c>
       <c r="M18">
-        <v>0.12749003984063739</v>
+        <v>0.15936254980079681</v>
       </c>
       <c r="N18">
-        <v>1.1952191235059761E-2</v>
+        <v>3.9840637450199202E-3</v>
       </c>
       <c r="O18">
-        <v>128.14741035856571</v>
+        <v>128.41035856573711</v>
       </c>
       <c r="P18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="Q18">
-        <v>32.669322709163353</v>
+        <v>31.075697211155379</v>
       </c>
       <c r="R18">
-        <v>32235</v>
+        <v>32337</v>
       </c>
       <c r="S18">
-        <v>2952</v>
+        <v>2880</v>
       </c>
       <c r="T18">
-        <v>35187</v>
+        <v>35217</v>
       </c>
       <c r="U18">
-        <v>2243</v>
+        <v>2213</v>
       </c>
       <c r="V18">
-        <v>208</v>
-      </c>
-      <c r="W18" s="10">
-        <v>2451</v>
+        <v>216</v>
+      </c>
+      <c r="W18">
+        <v>2429</v>
       </c>
       <c r="X18">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Z18">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>19</v>
+      <c r="A19" s="17">
+        <v>51</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
-      <c r="C19">
-        <v>251</v>
-      </c>
-      <c r="D19">
-        <v>131421090000</v>
-      </c>
-      <c r="E19">
-        <v>153958977980</v>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
       </c>
       <c r="F19">
         <f>(E19-D19)</f>
-        <v>22537887980</v>
+        <v>39992577160</v>
       </c>
       <c r="G19">
         <f>(E19/D19)*100</f>
-        <v>117.14936923746409</v>
-      </c>
-      <c r="H19">
-        <v>37679</v>
-      </c>
-      <c r="I19">
-        <v>128.53386454183271</v>
+        <v>130.43086703968137</v>
+      </c>
+      <c r="H19" s="17">
+        <v>37681</v>
+      </c>
+      <c r="I19" s="14">
+        <v>128.97211155378491</v>
       </c>
       <c r="J19">
-        <v>11.64541832669323</v>
-      </c>
-      <c r="K19">
-        <v>9.0597609561752996</v>
+        <v>11.314741035856571</v>
+      </c>
+      <c r="K19" s="17">
+        <v>8.8207171314741029</v>
       </c>
       <c r="L19">
-        <v>0.7450199203187251</v>
+        <v>0.8366533864541833</v>
       </c>
       <c r="M19">
-        <v>0.1235059760956175</v>
+        <v>0.17131474103585659</v>
       </c>
       <c r="N19">
         <v>7.9681274900398405E-3</v>
       </c>
       <c r="O19">
-        <v>128.35059760956179</v>
+        <v>128.58964143426289</v>
       </c>
       <c r="P19" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="19">
-        <v>39.04382470119522</v>
+        <v>38</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>34.262948207171313</v>
       </c>
       <c r="R19">
-        <v>32262</v>
+        <v>32372</v>
       </c>
       <c r="S19">
-        <v>2923</v>
-      </c>
-      <c r="T19" s="6">
-        <v>35185</v>
+        <v>2840</v>
+      </c>
+      <c r="T19" s="17">
+        <v>35212</v>
       </c>
       <c r="U19">
-        <v>2274</v>
+        <v>2214</v>
       </c>
       <c r="V19">
-        <v>187</v>
-      </c>
-      <c r="W19" s="14">
-        <v>2461</v>
+        <v>210</v>
+      </c>
+      <c r="W19" s="17">
+        <v>2424</v>
       </c>
       <c r="X19">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Y19">
         <v>2</v>
       </c>
       <c r="Z19">
-        <v>33</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>21</v>
+      <c r="A20" s="17">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
@@ -2128,77 +2134,77 @@
         <v>131421090000</v>
       </c>
       <c r="E20">
-        <v>157289866920</v>
+        <v>170433084440</v>
       </c>
       <c r="F20">
         <f>(E20-D20)</f>
-        <v>25868776920</v>
-      </c>
-      <c r="G20">
+        <v>39011994440</v>
+      </c>
+      <c r="G20" s="17">
         <f>(E20/D20)*100</f>
-        <v>119.68388553161444</v>
+        <v>129.68472901875947</v>
       </c>
       <c r="H20">
-        <v>37691</v>
-      </c>
-      <c r="I20">
-        <v>128.3545816733068</v>
+        <v>37685</v>
+      </c>
+      <c r="I20" s="12">
+        <v>128.85258964143429</v>
       </c>
       <c r="J20">
-        <v>11.908366533864539</v>
+        <v>11.466135458167329</v>
       </c>
       <c r="K20">
-        <v>9.0637450199203187</v>
+        <v>8.8525896414342622</v>
       </c>
       <c r="L20">
-        <v>0.70517928286852594</v>
-      </c>
-      <c r="M20">
-        <v>0.11155378486055779</v>
+        <v>0.78087649402390436</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0.18326693227091631</v>
       </c>
       <c r="N20">
-        <v>1.9920318725099601E-2</v>
+        <v>3.9840637450199202E-3</v>
       </c>
       <c r="O20">
-        <v>128.11553784860561</v>
+        <v>128.4980079681275</v>
       </c>
       <c r="P20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>42.629482071713149</v>
+        <v>29</v>
+      </c>
+      <c r="Q20">
+        <v>33.466135458167329</v>
       </c>
       <c r="R20">
-        <v>32217</v>
+        <v>32342</v>
       </c>
       <c r="S20">
-        <v>2989</v>
-      </c>
-      <c r="T20" s="6">
-        <v>35206</v>
+        <v>2878</v>
+      </c>
+      <c r="T20" s="17">
+        <v>35220</v>
       </c>
       <c r="U20">
-        <v>2275</v>
+        <v>2222</v>
       </c>
       <c r="V20">
-        <v>177</v>
-      </c>
-      <c r="W20" s="6">
-        <v>2452</v>
-      </c>
-      <c r="X20" s="6">
-        <v>28</v>
+        <v>196</v>
+      </c>
+      <c r="W20">
+        <v>2418</v>
+      </c>
+      <c r="X20">
+        <v>46</v>
       </c>
       <c r="Y20">
-        <v>5</v>
-      </c>
-      <c r="Z20">
-        <v>33</v>
+        <v>1</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>11</v>
+      <c r="A21" s="17">
+        <v>53</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
@@ -2206,81 +2212,81 @@
       <c r="C21">
         <v>251</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21">
         <v>131421090000</v>
       </c>
-      <c r="E21" s="10">
-        <v>148641587120</v>
+      <c r="E21">
+        <v>167688031760</v>
       </c>
       <c r="F21">
         <f>(E21-D21)</f>
-        <v>17220497120</v>
-      </c>
-      <c r="G21">
+        <v>36266941760</v>
+      </c>
+      <c r="G21" s="17">
         <f>(E21/D21)*100</f>
-        <v>113.10329804752037</v>
-      </c>
-      <c r="H21" s="19">
-        <v>37661</v>
+        <v>127.59598308003686</v>
+      </c>
+      <c r="H21" s="12">
+        <v>37694</v>
       </c>
       <c r="I21">
-        <v>128.48605577689241</v>
+        <v>128.796812749004</v>
       </c>
       <c r="J21">
-        <v>11.597609561752989</v>
-      </c>
-      <c r="K21">
-        <v>9.1155378486055785</v>
+        <v>11.55776892430279</v>
+      </c>
+      <c r="K21" s="17">
+        <v>8.9123505976095618</v>
       </c>
       <c r="L21">
-        <v>0.71713147410358569</v>
+        <v>0.72908366533864544</v>
       </c>
       <c r="M21">
-        <v>0.12749003984063739</v>
+        <v>0.17131474103585659</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>7.9681274900398405E-3</v>
       </c>
       <c r="O21">
-        <v>128.43426294820719</v>
+        <v>128.45418326693229</v>
       </c>
       <c r="P21" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21">
-        <v>37.450199203187253</v>
+        <v>26</v>
+      </c>
+      <c r="Q21" s="17">
+        <v>34.661354581673308</v>
       </c>
       <c r="R21">
-        <v>32250</v>
+        <v>32328</v>
       </c>
       <c r="S21">
-        <v>2911</v>
+        <v>2901</v>
       </c>
       <c r="T21">
-        <v>35161</v>
+        <v>35229</v>
       </c>
       <c r="U21">
-        <v>2288</v>
+        <v>2237</v>
       </c>
       <c r="V21">
-        <v>180</v>
-      </c>
-      <c r="W21" s="11">
-        <v>2468</v>
+        <v>183</v>
+      </c>
+      <c r="W21" s="17">
+        <v>2420</v>
       </c>
       <c r="X21">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="10">
-        <v>32</v>
+        <v>2</v>
+      </c>
+      <c r="Z21">
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>26</v>
+      <c r="A22" s="17">
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
@@ -2288,198 +2294,84 @@
       <c r="C22">
         <v>251</v>
       </c>
-      <c r="D22">
-        <v>82727220000</v>
-      </c>
-      <c r="E22">
-        <v>110189550920</v>
+      <c r="D22" s="17">
+        <v>130897500000</v>
+      </c>
+      <c r="E22" s="17">
+        <v>166479362960</v>
       </c>
       <c r="F22">
         <f>(E22-D22)</f>
-        <v>27462330920</v>
-      </c>
-      <c r="G22">
+        <v>35581862960</v>
+      </c>
+      <c r="G22" s="17">
         <f>(E22/D22)*100</f>
-        <v>133.19624534705747</v>
+        <v>127.18299658893409</v>
       </c>
       <c r="H22">
-        <v>23703</v>
+        <v>37520</v>
       </c>
       <c r="I22">
-        <v>80.896414342629484</v>
+        <v>128.19920318725099</v>
       </c>
       <c r="J22">
-        <v>7.3187250996015933</v>
-      </c>
-      <c r="K22">
-        <v>5.5776892430278888</v>
+        <v>11.39043824701195</v>
+      </c>
+      <c r="K22" s="17">
+        <v>8.9203187250996017</v>
       </c>
       <c r="L22">
-        <v>0.52589641434262946</v>
+        <v>0.81673306772908372</v>
       </c>
       <c r="M22">
-        <v>0.10756972111553791</v>
+        <v>0.1394422310756972</v>
       </c>
       <c r="N22">
-        <v>7.9681274900398405E-3</v>
+        <v>1.5936254980079681E-2</v>
       </c>
       <c r="O22">
-        <v>80.733067729083672</v>
+        <v>127.9641434262948</v>
       </c>
       <c r="P22" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="11">
-        <v>20.717131474103589</v>
+        <v>29</v>
+      </c>
+      <c r="Q22">
+        <v>33.466135458167329</v>
       </c>
       <c r="R22">
-        <v>20305</v>
+        <v>32178</v>
       </c>
       <c r="S22">
-        <v>1837</v>
+        <v>2859</v>
       </c>
       <c r="T22">
-        <v>22142</v>
+        <v>35037</v>
       </c>
       <c r="U22">
-        <v>1400</v>
+        <v>2239</v>
       </c>
       <c r="V22">
-        <v>132</v>
-      </c>
-      <c r="W22" s="17">
-        <v>1532</v>
+        <v>205</v>
+      </c>
+      <c r="W22">
+        <v>2444</v>
       </c>
       <c r="X22">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="Y22">
-        <v>2</v>
-      </c>
-      <c r="Z22">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>37</v>
-      </c>
-      <c r="X30"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="Z22" s="17">
         <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:AF2" xr:uid="{DC7E6EA3-2D38-4135-924B-9AF374495996}">
+  <autoFilter ref="A2:AF2" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState ref="A3:AF44">
-      <sortCondition descending="1" ref="Z2"/>
+      <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A3:Z44">
-    <sortCondition descending="1" ref="R3"/>
-  </sortState>
   <mergeCells count="4">
     <mergeCell ref="U1:W1"/>
     <mergeCell ref="X1:Z1"/>

--- a/all-summaries.xlsx
+++ b/all-summaries.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\535\daily1689\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B1BB98F-92B4-41F2-8EF2-62FF40D72EE6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B09E0F1A-342D-4C1A-81B9-15C39EC1C757}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2270" yWindow="2550" windowWidth="29130" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
   <si>
     <t>Trung bình/Kỳ</t>
   </si>
@@ -103,46 +103,136 @@
     <t>78/251</t>
   </si>
   <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>131421090000</t>
+  </si>
+  <si>
+    <t>148641587120.0</t>
+  </si>
+  <si>
     <t>94/251</t>
   </si>
   <si>
+    <t>171216874920.0</t>
+  </si>
+  <si>
     <t>87/251</t>
   </si>
   <si>
+    <t>168885007860.0</t>
+  </si>
+  <si>
     <t>88/251</t>
   </si>
   <si>
+    <t>166937578280.0</t>
+  </si>
+  <si>
+    <t>186740852920.0</t>
+  </si>
+  <si>
     <t>63/251</t>
   </si>
   <si>
+    <t>174643537020.0</t>
+  </si>
+  <si>
     <t>84/251</t>
   </si>
   <si>
+    <t>171029502840.0</t>
+  </si>
+  <si>
     <t>74/251</t>
   </si>
   <si>
+    <t>170803812640.0</t>
+  </si>
+  <si>
     <t>81/251</t>
   </si>
   <si>
+    <t>153958977980.0</t>
+  </si>
+  <si>
     <t>98/251</t>
   </si>
   <si>
+    <t>130897500000</t>
+  </si>
+  <si>
+    <t>175487208060.0</t>
+  </si>
+  <si>
+    <t>157289866920.0</t>
+  </si>
+  <si>
     <t>107/251</t>
   </si>
   <si>
+    <t>161643553900.0</t>
+  </si>
+  <si>
+    <t>161107982100.0</t>
+  </si>
+  <si>
     <t>82/251</t>
   </si>
   <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>131421090000</t>
+    <t>157811392240.0</t>
+  </si>
+  <si>
+    <t>166054694380.0</t>
   </si>
   <si>
     <t>171413667160.0</t>
   </si>
   <si>
     <t>86/251</t>
+  </si>
+  <si>
+    <t>170433084440.0</t>
+  </si>
+  <si>
+    <t>167688031760.0</t>
+  </si>
+  <si>
+    <t>166820986360.0</t>
+  </si>
+  <si>
+    <t>85/251</t>
+  </si>
+  <si>
+    <t>162047657400.0</t>
+  </si>
+  <si>
+    <t>73/251</t>
+  </si>
+  <si>
+    <t>158502824060.0</t>
+  </si>
+  <si>
+    <t>165094255060.0</t>
+  </si>
+  <si>
+    <t>79/251</t>
+  </si>
+  <si>
+    <t>164603681240.0</t>
+  </si>
+  <si>
+    <t>75/251</t>
+  </si>
+  <si>
+    <t>167783153220.0</t>
+  </si>
+  <si>
+    <t>170009604480.0</t>
+  </si>
+  <si>
+    <t>80/251</t>
   </si>
 </sst>
 </file>
@@ -176,7 +266,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -245,6 +335,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,11 +360,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,17 +389,21 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,8 +418,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Accent5" xfId="2" builtinId="45"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -593,60 +701,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF22"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9" style="17" customWidth="1"/>
-    <col min="3" max="3" width="4.26953125" style="17" customWidth="1"/>
-    <col min="4" max="4" width="14.1796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.453125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.90625" style="17" customWidth="1"/>
-    <col min="7" max="7" width="13.08984375" style="17" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" style="17" customWidth="1"/>
-    <col min="9" max="9" width="8.36328125" style="17" customWidth="1"/>
-    <col min="10" max="15" width="6.453125" style="17" customWidth="1"/>
-    <col min="16" max="16" width="9" style="17" customWidth="1"/>
-    <col min="17" max="17" width="9.08984375" style="17" customWidth="1"/>
-    <col min="18" max="22" width="9.26953125" style="17" customWidth="1"/>
-    <col min="23" max="23" width="9.26953125" style="11" customWidth="1"/>
-    <col min="24" max="26" width="9.26953125" style="17" customWidth="1"/>
-    <col min="27" max="27" width="6.6328125" style="17" customWidth="1"/>
-    <col min="28" max="28" width="7.7265625" style="17" customWidth="1"/>
-    <col min="29" max="32" width="6.6328125" style="17" customWidth="1"/>
+    <col min="2" max="2" width="9" style="18" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" style="18" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="8" style="7" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="8.42578125" style="18" customWidth="1"/>
+    <col min="10" max="14" width="6.42578125" style="18" customWidth="1"/>
+    <col min="15" max="15" width="8" style="18" customWidth="1"/>
+    <col min="16" max="16" width="9" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9.140625" style="18" customWidth="1"/>
+    <col min="18" max="22" width="9.28515625" style="18" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" style="19" customWidth="1"/>
+    <col min="24" max="26" width="9.28515625" style="18" customWidth="1"/>
+    <col min="27" max="27" width="6.5703125" style="18" customWidth="1"/>
+    <col min="28" max="28" width="7.7109375" style="18" customWidth="1"/>
+    <col min="29" max="32" width="6.5703125" style="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="I1" s="22" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="I1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="R1" s="23" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="R1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="18" t="s">
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="19"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="21" t="s">
+      <c r="V1" s="21"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-    </row>
-    <row r="2" spans="1:26" s="2" customFormat="1" ht="53.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+    </row>
+    <row r="2" spans="1:26" s="2" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
@@ -662,7 +771,7 @@
       <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
@@ -713,7 +822,7 @@
       <c r="V2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="10" t="s">
+      <c r="W2" s="9" t="s">
         <v>19</v>
       </c>
       <c r="X2" s="3">
@@ -726,9 +835,9 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>35</v>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="26">
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
@@ -736,36 +845,36 @@
       <c r="C3">
         <v>251</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" t="s">
         <v>23</v>
       </c>
       <c r="F3">
         <f>(E3-D3)</f>
         <v>51662243640</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
         <f>(E3/D3)*100</f>
         <v>139.62621328147634</v>
       </c>
       <c r="H3">
         <v>37417</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3">
         <v>127.78486055776889</v>
       </c>
       <c r="J3">
         <v>11.64541832669323</v>
       </c>
-      <c r="K3" s="17">
+      <c r="K3">
         <v>8.6374501992031867</v>
       </c>
       <c r="L3">
         <v>0.80478087649402386</v>
       </c>
-      <c r="M3" s="17">
+      <c r="M3">
         <v>0.1752988047808765</v>
       </c>
       <c r="N3">
@@ -777,7 +886,7 @@
       <c r="P3" t="s">
         <v>24</v>
       </c>
-      <c r="Q3" s="17">
+      <c r="Q3">
         <v>31.075697211155379</v>
       </c>
       <c r="R3">
@@ -786,7 +895,7 @@
       <c r="S3">
         <v>2923</v>
       </c>
-      <c r="T3" s="17">
+      <c r="T3">
         <v>34997</v>
       </c>
       <c r="U3">
@@ -795,7 +904,7 @@
       <c r="V3">
         <v>202</v>
       </c>
-      <c r="W3" s="17">
+      <c r="W3" s="18">
         <v>2370</v>
       </c>
       <c r="X3">
@@ -808,21 +917,21 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>36</v>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4">
-        <v>251</v>
-      </c>
-      <c r="D4">
-        <v>131421090000</v>
-      </c>
-      <c r="E4">
-        <v>148641587120</v>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
       </c>
       <c r="F4">
         <f>(E4-D4)</f>
@@ -833,21 +942,21 @@
         <v>113.10329804752037</v>
       </c>
       <c r="H4">
-        <v>37661</v>
-      </c>
-      <c r="I4" s="17">
+        <v>37789</v>
+      </c>
+      <c r="I4">
         <v>128.48605577689241</v>
       </c>
       <c r="J4">
         <v>11.597609561752989</v>
       </c>
-      <c r="K4" s="14">
-        <v>9.1155378486055803</v>
+      <c r="K4">
+        <v>10.342629482071709</v>
       </c>
       <c r="L4">
         <v>0.71713147410358569</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4">
         <v>0.12749003984063739</v>
       </c>
       <c r="N4">
@@ -857,7 +966,7 @@
         <v>128.43426294820719</v>
       </c>
       <c r="P4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q4">
         <v>37.450199203187253</v>
@@ -877,8 +986,8 @@
       <c r="V4">
         <v>180</v>
       </c>
-      <c r="W4" s="9">
-        <v>2468</v>
+      <c r="W4" s="18">
+        <v>2596</v>
       </c>
       <c r="X4">
         <v>32</v>
@@ -886,25 +995,25 @@
       <c r="Y4">
         <v>0</v>
       </c>
-      <c r="Z4" s="17">
+      <c r="Z4" s="18">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A5" s="17">
-        <v>37</v>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-      <c r="C5">
-        <v>251</v>
-      </c>
-      <c r="D5">
-        <v>131421090000</v>
-      </c>
-      <c r="E5">
-        <v>171216874920</v>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
       </c>
       <c r="F5">
         <f>(E5-D5)</f>
@@ -914,22 +1023,22 @@
         <f>(E5/D5)*100</f>
         <v>130.28112528970809</v>
       </c>
-      <c r="H5" s="14">
-        <v>37718</v>
-      </c>
-      <c r="I5" s="17">
+      <c r="H5">
+        <v>37906</v>
+      </c>
+      <c r="I5">
         <v>128.71713147410361</v>
       </c>
       <c r="J5">
         <v>11.812749003984059</v>
       </c>
-      <c r="K5" s="17">
-        <v>8.7569721115537842</v>
+      <c r="K5">
+        <v>10.30278884462151</v>
       </c>
       <c r="L5">
         <v>0.79681274900398402</v>
       </c>
-      <c r="M5" s="12">
+      <c r="M5">
         <v>0.18326693227091631</v>
       </c>
       <c r="N5">
@@ -939,7 +1048,7 @@
         <v>128.13545816733071</v>
       </c>
       <c r="P5" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q5">
         <v>34.661354581673308</v>
@@ -950,7 +1059,7 @@
       <c r="S5">
         <v>2965</v>
       </c>
-      <c r="T5" s="14">
+      <c r="T5">
         <v>35273</v>
       </c>
       <c r="U5">
@@ -959,8 +1068,8 @@
       <c r="V5">
         <v>200</v>
       </c>
-      <c r="W5" s="17">
-        <v>2398</v>
+      <c r="W5" s="18">
+        <v>2586</v>
       </c>
       <c r="X5">
         <v>46</v>
@@ -968,36 +1077,36 @@
       <c r="Y5">
         <v>1</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="18">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A6" s="17">
-        <v>38</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6">
-        <v>251</v>
-      </c>
-      <c r="D6" s="17">
-        <v>131421090000</v>
-      </c>
-      <c r="E6" s="17">
-        <v>168885007860</v>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
       </c>
       <c r="F6">
         <f>(E6-D6)</f>
         <v>37463917860</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6">
         <f>(E6/D6)*100</f>
         <v>128.50677761080814</v>
       </c>
-      <c r="H6" s="12">
-        <v>37715</v>
+      <c r="H6">
+        <v>37875</v>
       </c>
       <c r="I6">
         <v>128.601593625498</v>
@@ -1006,7 +1115,7 @@
         <v>11.8605577689243</v>
       </c>
       <c r="K6">
-        <v>8.8007968127490042</v>
+        <v>10.27490039840638</v>
       </c>
       <c r="L6">
         <v>0.8366533864541833</v>
@@ -1021,7 +1130,7 @@
         <v>128.03585657370519</v>
       </c>
       <c r="P6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="Q6">
         <v>35.059760956175303</v>
@@ -1032,7 +1141,7 @@
       <c r="S6">
         <v>2977</v>
       </c>
-      <c r="T6" s="12">
+      <c r="T6">
         <v>35256</v>
       </c>
       <c r="U6">
@@ -1041,8 +1150,8 @@
       <c r="V6">
         <v>210</v>
       </c>
-      <c r="W6" s="17">
-        <v>2419</v>
+      <c r="W6">
+        <v>2579</v>
       </c>
       <c r="X6">
         <v>36</v>
@@ -1050,25 +1159,25 @@
       <c r="Y6">
         <v>4</v>
       </c>
-      <c r="Z6" s="17">
+      <c r="Z6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A7" s="17">
-        <v>39</v>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-      <c r="C7">
-        <v>251</v>
-      </c>
-      <c r="D7">
-        <v>131421090000</v>
-      </c>
-      <c r="E7">
-        <v>166937578280</v>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
       </c>
       <c r="F7">
         <f>(E7-D7)</f>
@@ -1078,8 +1187,8 @@
         <f>(E7/D7)*100</f>
         <v>127.02495336174735</v>
       </c>
-      <c r="H7" s="17">
-        <v>37675</v>
+      <c r="H7">
+        <v>37835</v>
       </c>
       <c r="I7">
         <v>128.23904382470121</v>
@@ -1088,7 +1197,7 @@
         <v>12.011952191235061</v>
       </c>
       <c r="K7">
-        <v>8.8326693227091635</v>
+        <v>10.32669322709163</v>
       </c>
       <c r="L7">
         <v>0.85657370517928288</v>
@@ -1103,7 +1212,7 @@
         <v>127.87250996015941</v>
       </c>
       <c r="P7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="Q7">
         <v>34.661354581673308</v>
@@ -1123,8 +1232,8 @@
       <c r="V7">
         <v>215</v>
       </c>
-      <c r="W7">
-        <v>2432</v>
+      <c r="W7" s="18">
+        <v>2592</v>
       </c>
       <c r="X7">
         <v>38</v>
@@ -1132,45 +1241,45 @@
       <c r="Y7">
         <v>2</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="18">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A8" s="17">
-        <v>40</v>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="26">
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="C8">
-        <v>251</v>
-      </c>
-      <c r="D8">
-        <v>131421090000</v>
-      </c>
-      <c r="E8">
-        <v>186740852920</v>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
       <c r="F8">
         <f>(E8-D8)</f>
         <v>55319762920</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8">
         <f>(E8/D8)*100</f>
         <v>142.09352008874677</v>
       </c>
-      <c r="H8" s="17">
-        <v>37678</v>
-      </c>
-      <c r="I8" s="17">
+      <c r="H8">
+        <v>37866</v>
+      </c>
+      <c r="I8">
         <v>128.69721115537851</v>
       </c>
       <c r="J8">
         <v>11.60956175298805</v>
       </c>
       <c r="K8">
-        <v>8.6892430278884465</v>
+        <v>10.366533864541831</v>
       </c>
       <c r="L8">
         <v>0.92828685258964139</v>
@@ -1185,9 +1294,9 @@
         <v>128.17928286852589</v>
       </c>
       <c r="P8" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q8" s="9">
+        <v>35</v>
+      </c>
+      <c r="Q8">
         <v>25.099601593625501</v>
       </c>
       <c r="R8">
@@ -1196,7 +1305,7 @@
       <c r="S8">
         <v>2914</v>
       </c>
-      <c r="T8" s="17">
+      <c r="T8">
         <v>35217</v>
       </c>
       <c r="U8">
@@ -1205,8 +1314,8 @@
       <c r="V8">
         <v>233</v>
       </c>
-      <c r="W8">
-        <v>2414</v>
+      <c r="W8" s="11">
+        <v>2602</v>
       </c>
       <c r="X8">
         <v>39</v>
@@ -1214,45 +1323,45 @@
       <c r="Y8">
         <v>8</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A9" s="17">
-        <v>41</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>16</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>251</v>
-      </c>
-      <c r="D9">
-        <v>131421090000</v>
-      </c>
-      <c r="E9">
-        <v>174643537020</v>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
       <c r="F9">
         <f>(E9-D9)</f>
         <v>43222447020</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9">
         <f>(E9/D9)*100</f>
         <v>132.88851661479904</v>
       </c>
       <c r="H9">
-        <v>37689</v>
-      </c>
-      <c r="I9" s="17">
+        <v>37865</v>
+      </c>
+      <c r="I9">
         <v>128.4581673306773</v>
       </c>
       <c r="J9">
         <v>11.908366533864539</v>
       </c>
       <c r="K9">
-        <v>8.7968127490039834</v>
+        <v>10.314741035856571</v>
       </c>
       <c r="L9">
         <v>0.81673306772908372</v>
@@ -1267,9 +1376,9 @@
         <v>128.00398406374501</v>
       </c>
       <c r="P9" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q9" s="17">
+        <v>37</v>
+      </c>
+      <c r="Q9">
         <v>33.466135458167329</v>
       </c>
       <c r="R9">
@@ -1287,8 +1396,8 @@
       <c r="V9">
         <v>205</v>
       </c>
-      <c r="W9">
-        <v>2413</v>
+      <c r="W9" s="18">
+        <v>2589</v>
       </c>
       <c r="X9">
         <v>39</v>
@@ -1300,21 +1409,21 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A10" s="17">
-        <v>42</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>17</v>
       </c>
       <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C10">
-        <v>251</v>
-      </c>
-      <c r="D10">
-        <v>131421090000</v>
-      </c>
-      <c r="E10">
-        <v>171029502840</v>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
       </c>
       <c r="F10">
         <f>(E10-D10)</f>
@@ -1324,8 +1433,8 @@
         <f>(E10/D10)*100</f>
         <v>130.13855146080436</v>
       </c>
-      <c r="H10" s="17">
-        <v>37682</v>
+      <c r="H10">
+        <v>37850</v>
       </c>
       <c r="I10">
         <v>128.6414342629482</v>
@@ -1334,7 +1443,7 @@
         <v>11.66135458167331</v>
       </c>
       <c r="K10">
-        <v>8.8247011952191237</v>
+        <v>10.32669322709163</v>
       </c>
       <c r="L10">
         <v>0.83266932270916338</v>
@@ -1349,7 +1458,7 @@
         <v>128.23904382470121</v>
       </c>
       <c r="P10" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="Q10">
         <v>29.482071713147409</v>
@@ -1370,7 +1479,7 @@
         <v>209</v>
       </c>
       <c r="W10">
-        <v>2424</v>
+        <v>2592</v>
       </c>
       <c r="X10">
         <v>38</v>
@@ -1382,32 +1491,32 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A11" s="17">
-        <v>43</v>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="18">
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
       </c>
-      <c r="C11">
-        <v>251</v>
-      </c>
-      <c r="D11">
-        <v>131421090000</v>
-      </c>
-      <c r="E11">
-        <v>170803812640</v>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
       </c>
       <c r="F11">
         <f>(E11-D11)</f>
         <v>39382722640</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11">
         <f>(E11/D11)*100</f>
         <v>129.96682088087991</v>
       </c>
-      <c r="H11" s="17">
-        <v>37669</v>
+      <c r="H11">
+        <v>37833</v>
       </c>
       <c r="I11">
         <v>128.8167330677291</v>
@@ -1416,7 +1525,7 @@
         <v>11.37450199203187</v>
       </c>
       <c r="K11">
-        <v>8.856573705179283</v>
+        <v>10.37450199203187</v>
       </c>
       <c r="L11">
         <v>0.86454183266932272</v>
@@ -1431,9 +1540,9 @@
         <v>128.49402390438249</v>
       </c>
       <c r="P11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="17">
+        <v>41</v>
+      </c>
+      <c r="Q11">
         <v>32.270916334661351</v>
       </c>
       <c r="R11">
@@ -1442,7 +1551,7 @@
       <c r="S11">
         <v>2855</v>
       </c>
-      <c r="T11" s="17">
+      <c r="T11">
         <v>35188</v>
       </c>
       <c r="U11">
@@ -1451,8 +1560,8 @@
       <c r="V11">
         <v>217</v>
       </c>
-      <c r="W11">
-        <v>2440</v>
+      <c r="W11" s="18">
+        <v>2604</v>
       </c>
       <c r="X11">
         <v>37</v>
@@ -1460,45 +1569,45 @@
       <c r="Y11">
         <v>4</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="18">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A12" s="17">
-        <v>44</v>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>19</v>
       </c>
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12">
-        <v>251</v>
-      </c>
-      <c r="D12">
-        <v>131421090000</v>
-      </c>
-      <c r="E12">
-        <v>153958977980</v>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
       </c>
       <c r="F12">
         <f>(E12-D12)</f>
         <v>22537887980</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12">
         <f>(E12/D12)*100</f>
         <v>117.14936923746409</v>
       </c>
       <c r="H12">
-        <v>37679</v>
-      </c>
-      <c r="I12" s="17">
+        <v>37811</v>
+      </c>
+      <c r="I12">
         <v>128.53386454183271</v>
       </c>
       <c r="J12">
         <v>11.64541832669323</v>
       </c>
-      <c r="K12" s="12">
-        <v>9.0597609561752996</v>
+      <c r="K12">
+        <v>10.33067729083665</v>
       </c>
       <c r="L12">
         <v>0.7450199203187251</v>
@@ -1513,7 +1622,7 @@
         <v>128.35059760956179</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="Q12">
         <v>39.04382470119522</v>
@@ -1524,7 +1633,7 @@
       <c r="S12">
         <v>2923</v>
       </c>
-      <c r="T12" s="17">
+      <c r="T12">
         <v>35185</v>
       </c>
       <c r="U12">
@@ -1533,8 +1642,8 @@
       <c r="V12">
         <v>187</v>
       </c>
-      <c r="W12" s="12">
-        <v>2461</v>
+      <c r="W12">
+        <v>2593</v>
       </c>
       <c r="X12">
         <v>31</v>
@@ -1542,81 +1651,81 @@
       <c r="Y12">
         <v>2</v>
       </c>
-      <c r="Z12" s="17">
+      <c r="Z12">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A13" s="17">
-        <v>45</v>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="26">
+        <v>20</v>
       </c>
       <c r="B13" t="s">
         <v>21</v>
       </c>
-      <c r="C13">
-        <v>251</v>
-      </c>
-      <c r="D13">
-        <v>131421090000</v>
-      </c>
-      <c r="E13">
-        <v>175963427720</v>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
       </c>
       <c r="F13">
         <f>(E13-D13)</f>
-        <v>44542337720</v>
-      </c>
-      <c r="G13" s="12">
+        <v>44589708060</v>
+      </c>
+      <c r="G13">
         <f>(E13/D13)*100</f>
-        <v>133.8928384477712</v>
+        <v>134.06459868217496</v>
       </c>
       <c r="H13">
-        <v>37693</v>
+        <v>37749</v>
       </c>
       <c r="I13">
-        <v>128.53784860557769</v>
+        <v>128.02788844621509</v>
       </c>
       <c r="J13">
-        <v>11.89243027888446</v>
+        <v>11.856573705179279</v>
       </c>
       <c r="K13">
-        <v>8.7490039840637444</v>
+        <v>10.306772908366529</v>
       </c>
       <c r="L13">
-        <v>0.78884462151394419</v>
-      </c>
-      <c r="M13" s="14">
+        <v>0.78486055776892427</v>
+      </c>
+      <c r="M13">
         <v>0.19920318725099601</v>
       </c>
       <c r="N13">
         <v>3.9840637450199202E-3</v>
       </c>
       <c r="O13">
-        <v>128.0637450199203</v>
+        <v>127.5458167330677</v>
       </c>
       <c r="P13" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q13">
         <v>33.466135458167329</v>
       </c>
       <c r="R13">
-        <v>32263</v>
+        <v>32135</v>
       </c>
       <c r="S13">
-        <v>2985</v>
-      </c>
-      <c r="T13" s="13">
-        <v>35248</v>
+        <v>2976</v>
+      </c>
+      <c r="T13">
+        <v>35111</v>
       </c>
       <c r="U13">
-        <v>2196</v>
+        <v>2186</v>
       </c>
       <c r="V13">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="W13" s="17">
-        <v>2394</v>
+        <v>2587</v>
       </c>
       <c r="X13">
         <v>50</v>
@@ -1624,25 +1733,25 @@
       <c r="Y13">
         <v>1</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="16">
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A14" s="17">
-        <v>46</v>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14">
-        <v>251</v>
-      </c>
-      <c r="D14">
-        <v>131421090000</v>
-      </c>
-      <c r="E14">
-        <v>157289866920</v>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>46</v>
       </c>
       <c r="F14">
         <f>(E14-D14)</f>
@@ -1653,7 +1762,7 @@
         <v>119.68388553161444</v>
       </c>
       <c r="H14">
-        <v>37691</v>
+        <v>37823</v>
       </c>
       <c r="I14">
         <v>128.3545816733068</v>
@@ -1661,8 +1770,8 @@
       <c r="J14">
         <v>11.908366533864539</v>
       </c>
-      <c r="K14" s="12">
-        <v>9.0637450199203187</v>
+      <c r="K14">
+        <v>10.29482071713147</v>
       </c>
       <c r="L14">
         <v>0.70517928286852594</v>
@@ -1677,7 +1786,7 @@
         <v>128.11553784860561</v>
       </c>
       <c r="P14" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="Q14">
         <v>42.629482071713149</v>
@@ -1697,8 +1806,8 @@
       <c r="V14">
         <v>177</v>
       </c>
-      <c r="W14" s="17">
-        <v>2452</v>
+      <c r="W14" s="18">
+        <v>2584</v>
       </c>
       <c r="X14">
         <v>28</v>
@@ -1710,21 +1819,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A15" s="17">
-        <v>47</v>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>21</v>
       </c>
-      <c r="C15">
-        <v>251</v>
-      </c>
-      <c r="D15">
-        <v>131421090000</v>
-      </c>
-      <c r="E15">
-        <v>161643553900</v>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
       </c>
       <c r="F15">
         <f>(E15-D15)</f>
@@ -1735,16 +1844,16 @@
         <v>122.99666202738084</v>
       </c>
       <c r="H15">
-        <v>37638</v>
-      </c>
-      <c r="I15" s="17">
+        <v>37794</v>
+      </c>
+      <c r="I15">
         <v>128.15139442231069</v>
       </c>
       <c r="J15">
         <v>11.84860557768924</v>
       </c>
       <c r="K15">
-        <v>9.0119521912350606</v>
+        <v>10.41832669322709</v>
       </c>
       <c r="L15">
         <v>0.78486055776892427</v>
@@ -1759,9 +1868,9 @@
         <v>128.11155378486049</v>
       </c>
       <c r="P15" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q15" s="17">
+        <v>30</v>
+      </c>
+      <c r="Q15">
         <v>34.661354581673308</v>
       </c>
       <c r="R15">
@@ -1779,8 +1888,8 @@
       <c r="V15">
         <v>197</v>
       </c>
-      <c r="W15" s="13">
-        <v>2459</v>
+      <c r="W15" s="16">
+        <v>2615</v>
       </c>
       <c r="X15">
         <v>38</v>
@@ -1792,21 +1901,21 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A16" s="17">
-        <v>48</v>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="18">
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
-      <c r="C16">
-        <v>251</v>
-      </c>
-      <c r="D16">
-        <v>131421090000</v>
-      </c>
-      <c r="E16">
-        <v>161107982100</v>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
       </c>
       <c r="F16">
         <f>(E16-D16)</f>
@@ -1817,16 +1926,16 @@
         <v>122.58913854694097</v>
       </c>
       <c r="H16">
-        <v>37673</v>
-      </c>
-      <c r="I16" s="17">
+        <v>37813</v>
+      </c>
+      <c r="I16">
         <v>128.42629482071709</v>
       </c>
       <c r="J16">
         <v>11.7609561752988</v>
       </c>
       <c r="K16">
-        <v>8.9362549800796813</v>
+        <v>10.322709163346611</v>
       </c>
       <c r="L16">
         <v>0.82868525896414347</v>
@@ -1841,7 +1950,7 @@
         <v>128.14741035856571</v>
       </c>
       <c r="P16" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="Q16">
         <v>32.669322709163353</v>
@@ -1861,8 +1970,8 @@
       <c r="V16">
         <v>208</v>
       </c>
-      <c r="W16">
-        <v>2451</v>
+      <c r="W16" s="18">
+        <v>2591</v>
       </c>
       <c r="X16">
         <v>32</v>
@@ -1870,25 +1979,25 @@
       <c r="Y16">
         <v>3</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="18">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A17" s="17">
-        <v>49</v>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>21</v>
       </c>
-      <c r="C17">
-        <v>251</v>
-      </c>
-      <c r="D17">
-        <v>131421090000</v>
-      </c>
-      <c r="E17">
-        <v>157811392240</v>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" t="s">
+        <v>51</v>
       </c>
       <c r="F17">
         <f>(E17-D17)</f>
@@ -1898,8 +2007,8 @@
         <f>(E17/D17)*100</f>
         <v>120.08072086451268</v>
       </c>
-      <c r="H17" s="17">
-        <v>37664</v>
+      <c r="H17">
+        <v>37808</v>
       </c>
       <c r="I17">
         <v>128.36254980079681</v>
@@ -1908,7 +2017,7 @@
         <v>11.7808764940239</v>
       </c>
       <c r="K17">
-        <v>8.9402390438247004</v>
+        <v>10.342629482071709</v>
       </c>
       <c r="L17">
         <v>0.82868525896414347</v>
@@ -1934,7 +2043,7 @@
       <c r="S17">
         <v>2957</v>
       </c>
-      <c r="T17" s="17">
+      <c r="T17">
         <v>35176</v>
       </c>
       <c r="U17">
@@ -1943,8 +2052,8 @@
       <c r="V17">
         <v>208</v>
       </c>
-      <c r="W17">
-        <v>2452</v>
+      <c r="W17" s="18">
+        <v>2596</v>
       </c>
       <c r="X17">
         <v>36</v>
@@ -1956,21 +2065,21 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A18" s="17">
-        <v>50</v>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A18" s="18">
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
-        <v>251</v>
-      </c>
-      <c r="D18">
-        <v>131421090000</v>
-      </c>
-      <c r="E18">
-        <v>166054694380</v>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
       </c>
       <c r="F18">
         <f>(E18-D18)</f>
@@ -1981,16 +2090,16 @@
         <v>126.3531556312613</v>
       </c>
       <c r="H18">
-        <v>37687</v>
-      </c>
-      <c r="I18" s="13">
+        <v>37851</v>
+      </c>
+      <c r="I18">
         <v>128.83266932270919</v>
       </c>
       <c r="J18">
         <v>11.474103585657369</v>
       </c>
       <c r="K18">
-        <v>8.8167330677290838</v>
+        <v>10.33067729083665</v>
       </c>
       <c r="L18">
         <v>0.8605577689243028</v>
@@ -2025,8 +2134,8 @@
       <c r="V18">
         <v>216</v>
       </c>
-      <c r="W18">
-        <v>2429</v>
+      <c r="W18" s="18">
+        <v>2593</v>
       </c>
       <c r="X18">
         <v>40</v>
@@ -2034,25 +2143,25 @@
       <c r="Y18">
         <v>1</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="18">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A19" s="17">
-        <v>51</v>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>26</v>
       </c>
       <c r="B19" t="s">
         <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" t="s">
-        <v>36</v>
+        <v>25</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <f>(E19-D19)</f>
@@ -2062,17 +2171,17 @@
         <f>(E19/D19)*100</f>
         <v>130.43086703968137</v>
       </c>
-      <c r="H19" s="17">
-        <v>37681</v>
-      </c>
-      <c r="I19" s="14">
+      <c r="H19">
+        <v>37861</v>
+      </c>
+      <c r="I19">
         <v>128.97211155378491</v>
       </c>
       <c r="J19">
         <v>11.314741035856571</v>
       </c>
-      <c r="K19" s="17">
-        <v>8.8207171314741029</v>
+      <c r="K19">
+        <v>10.37450199203187</v>
       </c>
       <c r="L19">
         <v>0.8366533864541833</v>
@@ -2087,9 +2196,9 @@
         <v>128.58964143426289</v>
       </c>
       <c r="P19" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q19" s="9">
+        <v>54</v>
+      </c>
+      <c r="Q19">
         <v>34.262948207171313</v>
       </c>
       <c r="R19">
@@ -2098,7 +2207,7 @@
       <c r="S19">
         <v>2840</v>
       </c>
-      <c r="T19" s="17">
+      <c r="T19">
         <v>35212</v>
       </c>
       <c r="U19">
@@ -2107,8 +2216,8 @@
       <c r="V19">
         <v>210</v>
       </c>
-      <c r="W19" s="17">
-        <v>2424</v>
+      <c r="W19" s="18">
+        <v>2604</v>
       </c>
       <c r="X19">
         <v>43</v>
@@ -2120,46 +2229,46 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A20" s="17">
-        <v>52</v>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A20" s="26">
+        <v>27</v>
       </c>
       <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="C20">
-        <v>251</v>
-      </c>
-      <c r="D20">
-        <v>131421090000</v>
-      </c>
-      <c r="E20">
-        <v>170433084440</v>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
       </c>
       <c r="F20">
         <f>(E20-D20)</f>
         <v>39011994440</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G20">
         <f>(E20/D20)*100</f>
         <v>129.68472901875947</v>
       </c>
       <c r="H20">
-        <v>37685</v>
-      </c>
-      <c r="I20" s="12">
+        <v>37873</v>
+      </c>
+      <c r="I20">
         <v>128.85258964143429</v>
       </c>
       <c r="J20">
         <v>11.466135458167329</v>
       </c>
       <c r="K20">
-        <v>8.8525896414342622</v>
+        <v>10.38247011952191</v>
       </c>
       <c r="L20">
         <v>0.78087649402390436</v>
       </c>
-      <c r="M20" s="12">
+      <c r="M20">
         <v>0.18326693227091631</v>
       </c>
       <c r="N20">
@@ -2169,7 +2278,7 @@
         <v>128.4980079681275</v>
       </c>
       <c r="P20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="Q20">
         <v>33.466135458167329</v>
@@ -2180,7 +2289,7 @@
       <c r="S20">
         <v>2878</v>
       </c>
-      <c r="T20" s="17">
+      <c r="T20">
         <v>35220</v>
       </c>
       <c r="U20">
@@ -2189,8 +2298,8 @@
       <c r="V20">
         <v>196</v>
       </c>
-      <c r="W20">
-        <v>2418</v>
+      <c r="W20" s="10">
+        <v>2606</v>
       </c>
       <c r="X20">
         <v>46</v>
@@ -2198,36 +2307,36 @@
       <c r="Y20">
         <v>1</v>
       </c>
-      <c r="Z20" s="15">
+      <c r="Z20" s="11">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A21" s="17">
-        <v>53</v>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>28</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="C21">
-        <v>251</v>
-      </c>
-      <c r="D21">
-        <v>131421090000</v>
-      </c>
-      <c r="E21">
-        <v>167688031760</v>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
       </c>
       <c r="F21">
         <f>(E21-D21)</f>
         <v>36266941760</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21">
         <f>(E21/D21)*100</f>
         <v>127.59598308003686</v>
       </c>
-      <c r="H21" s="12">
-        <v>37694</v>
+      <c r="H21">
+        <v>37874</v>
       </c>
       <c r="I21">
         <v>128.796812749004</v>
@@ -2235,8 +2344,8 @@
       <c r="J21">
         <v>11.55776892430279</v>
       </c>
-      <c r="K21" s="17">
-        <v>8.9123505976095618</v>
+      <c r="K21">
+        <v>10.358565737051791</v>
       </c>
       <c r="L21">
         <v>0.72908366533864544</v>
@@ -2251,9 +2360,9 @@
         <v>128.45418326693229</v>
       </c>
       <c r="P21" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q21" s="17">
+        <v>30</v>
+      </c>
+      <c r="Q21">
         <v>34.661354581673308</v>
       </c>
       <c r="R21">
@@ -2271,8 +2380,8 @@
       <c r="V21">
         <v>183</v>
       </c>
-      <c r="W21" s="17">
-        <v>2420</v>
+      <c r="W21" s="18">
+        <v>2600</v>
       </c>
       <c r="X21">
         <v>43</v>
@@ -2284,41 +2393,41 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A22" s="17">
-        <v>54</v>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>29</v>
       </c>
       <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="C22">
-        <v>251</v>
-      </c>
-      <c r="D22" s="17">
-        <v>130897500000</v>
-      </c>
-      <c r="E22" s="17">
-        <v>166479362960</v>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
       </c>
       <c r="F22">
         <f>(E22-D22)</f>
-        <v>35581862960</v>
-      </c>
-      <c r="G22" s="17">
+        <v>35399896360</v>
+      </c>
+      <c r="G22">
         <f>(E22/D22)*100</f>
-        <v>127.18299658893409</v>
+        <v>126.93623706819051</v>
       </c>
       <c r="H22">
-        <v>37520</v>
+        <v>37826</v>
       </c>
       <c r="I22">
-        <v>128.19920318725099</v>
+        <v>128.70119521912349</v>
       </c>
       <c r="J22">
-        <v>11.39043824701195</v>
-      </c>
-      <c r="K22" s="17">
-        <v>8.9203187250996017</v>
+        <v>11.446215139442231</v>
+      </c>
+      <c r="K22">
+        <v>10.39840637450199</v>
       </c>
       <c r="L22">
         <v>0.81673306772908372</v>
@@ -2330,31 +2439,31 @@
         <v>1.5936254980079681E-2</v>
       </c>
       <c r="O22">
-        <v>127.9641434262948</v>
+        <v>128.47011952191241</v>
       </c>
       <c r="P22" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="Q22">
-        <v>33.466135458167329</v>
+        <v>33.864541832669318</v>
       </c>
       <c r="R22">
-        <v>32178</v>
+        <v>32304</v>
       </c>
       <c r="S22">
-        <v>2859</v>
+        <v>2873</v>
       </c>
       <c r="T22">
-        <v>35037</v>
+        <v>35177</v>
       </c>
       <c r="U22">
-        <v>2239</v>
+        <v>2249</v>
       </c>
       <c r="V22">
         <v>205</v>
       </c>
-      <c r="W22">
-        <v>2444</v>
+      <c r="W22" s="12">
+        <v>2610</v>
       </c>
       <c r="X22">
         <v>35</v>
@@ -2362,13 +2471,535 @@
       <c r="Y22">
         <v>4</v>
       </c>
-      <c r="Z22" s="17">
+      <c r="Z22" s="18">
         <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>30</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23">
+        <f>(E23-D23)</f>
+        <v>30626567400</v>
+      </c>
+      <c r="G23">
+        <f>(E23/D23)*100</f>
+        <v>123.30414958512365</v>
+      </c>
+      <c r="H23">
+        <v>37794</v>
+      </c>
+      <c r="I23">
+        <v>128.39442231075699</v>
+      </c>
+      <c r="J23">
+        <v>11.685258964143429</v>
+      </c>
+      <c r="K23">
+        <v>10.350597609561749</v>
+      </c>
+      <c r="L23">
+        <v>0.90438247011952189</v>
+      </c>
+      <c r="M23">
+        <v>0.1394422310756972</v>
+      </c>
+      <c r="N23">
+        <v>3.9840637450199202E-3</v>
+      </c>
+      <c r="O23">
+        <v>128.15537848605581</v>
+      </c>
+      <c r="P23" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23">
+        <v>29.083665338645421</v>
+      </c>
+      <c r="R23">
+        <v>32227</v>
+      </c>
+      <c r="S23">
+        <v>2933</v>
+      </c>
+      <c r="T23">
+        <v>35160</v>
+      </c>
+      <c r="U23">
+        <v>2227</v>
+      </c>
+      <c r="V23">
+        <v>227</v>
+      </c>
+      <c r="W23">
+        <v>2598</v>
+      </c>
+      <c r="X23">
+        <v>35</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24">
+        <f>(E24-D24)</f>
+        <v>27081734060</v>
+      </c>
+      <c r="G24">
+        <f>(E24/D24)*100</f>
+        <v>120.60684024154722</v>
+      </c>
+      <c r="H24">
+        <v>37773</v>
+      </c>
+      <c r="I24">
+        <v>128.4780876494024</v>
+      </c>
+      <c r="J24">
+        <v>11.52988047808765</v>
+      </c>
+      <c r="K24">
+        <v>10.35458167330677</v>
+      </c>
+      <c r="L24">
+        <v>0.8605577689243028</v>
+      </c>
+      <c r="M24">
+        <v>0.1155378486055777</v>
+      </c>
+      <c r="N24">
+        <v>1.1952191235059761E-2</v>
+      </c>
+      <c r="O24">
+        <v>128.34661354581669</v>
+      </c>
+      <c r="P24" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q24">
+        <v>31.075697211155379</v>
+      </c>
+      <c r="R24">
+        <v>32248</v>
+      </c>
+      <c r="S24">
+        <v>2894</v>
+      </c>
+      <c r="T24">
+        <v>35142</v>
+      </c>
+      <c r="U24">
+        <v>2255</v>
+      </c>
+      <c r="V24">
+        <v>216</v>
+      </c>
+      <c r="W24">
+        <v>2599</v>
+      </c>
+      <c r="X24">
+        <v>29</v>
+      </c>
+      <c r="Y24">
+        <v>3</v>
+      </c>
+      <c r="Z24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>32</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25">
+        <f>(E25-D25)</f>
+        <v>33673165060</v>
+      </c>
+      <c r="G25">
+        <f>(E25/D25)*100</f>
+        <v>125.62234498283343</v>
+      </c>
+      <c r="H25">
+        <v>37796</v>
+      </c>
+      <c r="I25">
+        <v>128.3266932270916</v>
+      </c>
+      <c r="J25">
+        <v>11.768924302788839</v>
+      </c>
+      <c r="K25">
+        <v>10.34661354581673</v>
+      </c>
+      <c r="L25">
+        <v>0.89243027888446214</v>
+      </c>
+      <c r="M25">
+        <v>0.1235059760956175</v>
+      </c>
+      <c r="N25">
+        <v>1.5936254980079681E-2</v>
+      </c>
+      <c r="O25">
+        <v>128.07171314741029</v>
+      </c>
+      <c r="P25" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25">
+        <v>31.474103585657371</v>
+      </c>
+      <c r="R25">
+        <v>32210</v>
+      </c>
+      <c r="S25">
+        <v>2954</v>
+      </c>
+      <c r="T25">
+        <v>35164</v>
+      </c>
+      <c r="U25">
+        <v>2233</v>
+      </c>
+      <c r="V25">
+        <v>224</v>
+      </c>
+      <c r="W25">
+        <v>2597</v>
+      </c>
+      <c r="X25">
+        <v>31</v>
+      </c>
+      <c r="Y25">
+        <v>4</v>
+      </c>
+      <c r="Z25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>33</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26">
+        <f>(E26-D26)</f>
+        <v>33182591240</v>
+      </c>
+      <c r="G26">
+        <f>(E26/D26)*100</f>
+        <v>125.24906104492058</v>
+      </c>
+      <c r="H26">
+        <v>37811</v>
+      </c>
+      <c r="I26">
+        <v>128.33864541832671</v>
+      </c>
+      <c r="J26">
+        <v>11.820717131474099</v>
+      </c>
+      <c r="K26">
+        <v>10.334661354581669</v>
+      </c>
+      <c r="L26">
+        <v>0.89641434262948205</v>
+      </c>
+      <c r="M26">
+        <v>0.1394422310756972</v>
+      </c>
+      <c r="N26">
+        <v>7.9681274900398405E-3</v>
+      </c>
+      <c r="O26">
+        <v>128.02390438247011</v>
+      </c>
+      <c r="P26" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q26">
+        <v>29.880478087649401</v>
+      </c>
+      <c r="R26">
+        <v>32213</v>
+      </c>
+      <c r="S26">
+        <v>2967</v>
+      </c>
+      <c r="T26">
+        <v>35180</v>
+      </c>
+      <c r="U26">
+        <v>2221</v>
+      </c>
+      <c r="V26">
+        <v>225</v>
+      </c>
+      <c r="W26" s="18">
+        <v>2594</v>
+      </c>
+      <c r="X26">
+        <v>35</v>
+      </c>
+      <c r="Y26">
+        <v>2</v>
+      </c>
+      <c r="Z26" s="18">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A27" s="18">
+        <v>34</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>25</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27">
+        <f>(E27-D27)</f>
+        <v>36362063220</v>
+      </c>
+      <c r="G27">
+        <f>(E27/D27)*100</f>
+        <v>127.66836222405399</v>
+      </c>
+      <c r="H27">
+        <v>37820</v>
+      </c>
+      <c r="I27">
+        <v>128.49402390438249</v>
+      </c>
+      <c r="J27">
+        <v>11.733067729083659</v>
+      </c>
+      <c r="K27">
+        <v>10.306772908366529</v>
+      </c>
+      <c r="L27">
+        <v>0.89641434262948205</v>
+      </c>
+      <c r="M27">
+        <v>0.1235059760956175</v>
+      </c>
+      <c r="N27">
+        <v>1.9920318725099601E-2</v>
+      </c>
+      <c r="O27">
+        <v>128.09960159362549</v>
+      </c>
+      <c r="P27" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q27">
+        <v>29.482071713147409</v>
+      </c>
+      <c r="R27">
+        <v>32252</v>
+      </c>
+      <c r="S27">
+        <v>2945</v>
+      </c>
+      <c r="T27">
+        <v>35197</v>
+      </c>
+      <c r="U27">
+        <v>2218</v>
+      </c>
+      <c r="V27">
+        <v>225</v>
+      </c>
+      <c r="W27">
+        <v>2587</v>
+      </c>
+      <c r="X27">
+        <v>31</v>
+      </c>
+      <c r="Y27">
+        <v>5</v>
+      </c>
+      <c r="Z27" s="18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A28" s="18">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28">
+        <f>(E28-D28)</f>
+        <v>38588514480</v>
+      </c>
+      <c r="G28">
+        <f>(E28/D28)*100</f>
+        <v>129.36249766304633</v>
+      </c>
+      <c r="H28">
+        <v>37848</v>
+      </c>
+      <c r="I28">
+        <v>128.77689243027891</v>
+      </c>
+      <c r="J28">
+        <v>11.56573705179283</v>
+      </c>
+      <c r="K28">
+        <v>10.29482071713147</v>
+      </c>
+      <c r="L28">
+        <v>0.81673306772908372</v>
+      </c>
+      <c r="M28">
+        <v>0.1235059760956175</v>
+      </c>
+      <c r="N28">
+        <v>2.7888446215139438E-2</v>
+      </c>
+      <c r="O28">
+        <v>128.33864541832671</v>
+      </c>
+      <c r="P28" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28">
+        <v>31.872509960159359</v>
+      </c>
+      <c r="R28">
+        <v>32323</v>
+      </c>
+      <c r="S28">
+        <v>2903</v>
+      </c>
+      <c r="T28">
+        <v>35226</v>
+      </c>
+      <c r="U28">
+        <v>2227</v>
+      </c>
+      <c r="V28">
+        <v>205</v>
+      </c>
+      <c r="W28" s="18">
+        <v>2584</v>
+      </c>
+      <c r="X28">
+        <v>31</v>
+      </c>
+      <c r="Y28">
+        <v>7</v>
+      </c>
+      <c r="Z28" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:AF2" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <sortState ref="A3:AF44">
+    <sortState ref="A3:AF34">
       <sortCondition ref="A2"/>
     </sortState>
   </autoFilter>
